--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,240 +43,345 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>poor</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>glasses</t>
   </si>
   <si>
     <t>filters</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>months</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>cracked</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>grind</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>iron</t>
   </si>
   <si>
     <t>filter</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>but</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>then</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>did</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>side</t>
+    <t>t</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>think</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>2</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>up</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -289,46 +394,22 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>great</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -689,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="K3">
-        <v>0.8064516129032258</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -800,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -808,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9245283018867925</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="K4">
-        <v>0.796875</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -850,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K5">
-        <v>0.7608695652173914</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8813559322033898</v>
+        <v>0.86</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>0.711864406779661</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -950,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.8559322033898306</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -976,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K7">
-        <v>0.7074303405572755</v>
+        <v>0.6099071207430341</v>
       </c>
       <c r="L7">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="M7">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1000,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1008,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1026,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="K8">
-        <v>0.5627705627705628</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L8">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="M8">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1050,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7945945945945946</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1076,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="L9">
         <v>38</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9">
-        <v>0.5324675324675324</v>
-      </c>
-      <c r="L9">
-        <v>41</v>
-      </c>
       <c r="M9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1100,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7884615384615384</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1126,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K10">
-        <v>0.3947368421052632</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1150,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1158,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7808219178082192</v>
+        <v>0.825</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1176,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="K11">
-        <v>0.3771428571428572</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1208,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.7891891891891892</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1226,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="K12">
-        <v>0.3555555555555556</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1276,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1326,31 +1407,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14">
+        <v>0.1531531531531531</v>
+      </c>
+      <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>94</v>
-      </c>
-      <c r="K14">
-        <v>0.3287671232876712</v>
-      </c>
-      <c r="L14">
-        <v>24</v>
-      </c>
-      <c r="M14">
-        <v>24</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1358,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7358490566037735</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1376,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K15">
-        <v>0.3015873015873016</v>
+        <v>0.06438356164383562</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>44</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,13 +1489,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7352941176470589</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1426,45 +1507,45 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="K16">
-        <v>0.2792792792792793</v>
+        <v>0.01880424300867888</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6444444444444445</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1476,45 +1557,21 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17">
-        <v>0.25</v>
-      </c>
-      <c r="L17">
-        <v>311</v>
-      </c>
-      <c r="M17">
-        <v>313</v>
-      </c>
-      <c r="N17">
-        <v>0.99</v>
-      </c>
-      <c r="O17">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6338028169014085</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1526,45 +1583,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18">
-        <v>0.2469135802469136</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-      <c r="M18">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6320754716981132</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1576,45 +1609,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6153846153846154</v>
+        <v>0.65625</v>
       </c>
       <c r="C20">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1626,45 +1635,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>75</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>0.1595744680851064</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6046511627906976</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1676,45 +1661,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21">
-        <v>0.1506849315068493</v>
-      </c>
-      <c r="L21">
-        <v>110</v>
-      </c>
-      <c r="M21">
-        <v>110</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6013513513513513</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C22">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1726,45 +1687,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>59</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22">
-        <v>0.05637254901960784</v>
-      </c>
-      <c r="L22">
-        <v>23</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5769230769230769</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1776,45 +1713,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23">
-        <v>0.03183023872679045</v>
-      </c>
-      <c r="L23">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>25</v>
-      </c>
-      <c r="N23">
-        <v>0.96</v>
-      </c>
-      <c r="O23">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1826,45 +1739,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24">
-        <v>0.02260495156081808</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5517241379310345</v>
+        <v>0.6126984126984127</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>1158</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>1158</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1876,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5486725663716814</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1902,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5172413793103449</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4871794871794872</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C29">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1980,47 +1869,47 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4711538461538461</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C30">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>49</v>
       </c>
-      <c r="D30">
-        <v>49</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4666666666666667</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2032,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4563106796116505</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C32">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2058,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2066,13 +1955,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4318181818181818</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2084,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2092,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2110,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2118,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3653846153846154</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2136,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2144,25 +2033,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3651685393258427</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2170,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3461538461538461</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2188,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2196,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.29</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2214,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2222,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2894736842105263</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2240,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2248,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2878787878787879</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2266,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2274,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2828282828282828</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2292,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2300,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2783505154639175</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2318,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2326,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2777777777777778</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2344,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2352,13 +2241,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2777777777777778</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2370,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2378,13 +2267,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.275</v>
+        <v>0.3405405405405406</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2396,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2404,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2716049382716049</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2422,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2430,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2622950819672131</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2448,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2456,13 +2345,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2619047619047619</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2474,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2482,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2542372881355932</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -2500,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2508,13 +2397,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2291105121293801</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C50">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2526,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>286</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2534,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2068965517241379</v>
+        <v>0.2602230483271376</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2552,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2560,7 +2449,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2023809523809524</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -2578,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2586,13 +2475,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.202020202020202</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2604,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2612,13 +2501,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1807228915662651</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2630,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>68</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2638,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1801801801801802</v>
+        <v>0.25</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2656,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2664,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1797752808988764</v>
+        <v>0.24</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2682,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2690,13 +2579,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1788079470198675</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2708,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2716,13 +2605,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1724137931034483</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="C58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2734,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2742,13 +2631,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.163265306122449</v>
+        <v>0.2</v>
       </c>
       <c r="C59">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2760,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2768,13 +2657,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1469387755102041</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C60">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2786,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>627</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2794,13 +2683,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1451612903225807</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2812,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2820,7 +2709,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1327433628318584</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C62">
         <v>15</v>
@@ -2838,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2846,13 +2735,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1317829457364341</v>
+        <v>0.1431111111111111</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2864,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>112</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2872,13 +2761,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1270903010033445</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C64">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2890,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>261</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2898,13 +2787,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1222707423580786</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2916,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2924,13 +2813,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1212121212121212</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2942,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2950,25 +2839,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1095890410958904</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>130</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2976,13 +2865,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1043956043956044</v>
+        <v>0.115</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2994,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3002,13 +2891,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09433962264150944</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3020,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3028,25 +2917,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.09399477806788512</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="C70">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>694</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3054,13 +2943,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07560975609756097</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3072,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>379</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3080,25 +2969,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.05405405405405406</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>385</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3106,25 +2995,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05089058524173028</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>373</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3132,25 +3021,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.03640776699029126</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>397</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3158,25 +3047,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.02535211267605634</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E75">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1038</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3184,25 +3073,935 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.02519548218940052</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.06109822119102862</v>
+      </c>
+      <c r="C77">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>79</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.05845511482254697</v>
+      </c>
+      <c r="C78">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>56</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.05591397849462366</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.05449591280653951</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.0510752688172043</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.04678111587982833</v>
+      </c>
+      <c r="C82">
+        <v>109</v>
+      </c>
+      <c r="D82">
+        <v>111</v>
+      </c>
+      <c r="E82">
+        <v>0.02</v>
+      </c>
+      <c r="F82">
+        <v>0.98</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.04674796747967479</v>
+      </c>
+      <c r="C83">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.04563233376792699</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>35</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.04481792717086835</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.04393647023897877</v>
+      </c>
+      <c r="C86">
+        <v>296</v>
+      </c>
+      <c r="D86">
+        <v>304</v>
+      </c>
+      <c r="E86">
+        <v>0.03</v>
+      </c>
+      <c r="F86">
+        <v>0.97</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.04390243902439024</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.04157549234135667</v>
+      </c>
+      <c r="C89">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.04124860646599777</v>
+      </c>
+      <c r="C90">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>38</v>
+      </c>
+      <c r="E90">
+        <v>0.03</v>
+      </c>
+      <c r="F90">
+        <v>0.97</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.03747534516765286</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.03676470588235294</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>0.06</v>
+      </c>
+      <c r="F92">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.03533515316954807</v>
+      </c>
+      <c r="C93">
+        <v>233</v>
+      </c>
+      <c r="D93">
+        <v>239</v>
+      </c>
+      <c r="E93">
+        <v>0.03</v>
+      </c>
+      <c r="F93">
+        <v>0.97</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.03532008830022075</v>
+      </c>
+      <c r="C94">
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="C95">
+        <v>49</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>0.02</v>
+      </c>
+      <c r="F95">
+        <v>0.98</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.03137478608100399</v>
+      </c>
+      <c r="C96">
+        <v>55</v>
+      </c>
+      <c r="D96">
+        <v>57</v>
+      </c>
+      <c r="E96">
+        <v>0.04</v>
+      </c>
+      <c r="F96">
+        <v>0.96</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.03114754098360656</v>
+      </c>
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.02921646746347941</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>23</v>
+      </c>
+      <c r="E98">
+        <v>0.04</v>
+      </c>
+      <c r="F98">
+        <v>0.96</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.02917962209997608</v>
+      </c>
+      <c r="C99">
+        <v>122</v>
+      </c>
+      <c r="D99">
+        <v>124</v>
+      </c>
+      <c r="E99">
+        <v>0.02</v>
+      </c>
+      <c r="F99">
+        <v>0.98</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.02863478596220594</v>
+      </c>
+      <c r="C100">
+        <v>297</v>
+      </c>
+      <c r="D100">
+        <v>307</v>
+      </c>
+      <c r="E100">
+        <v>0.03</v>
+      </c>
+      <c r="F100">
+        <v>0.97</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>0.12</v>
+      </c>
+      <c r="F101">
+        <v>0.88</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.02372881355932203</v>
+      </c>
+      <c r="C102">
+        <v>28</v>
+      </c>
+      <c r="D102">
+        <v>28</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.02147340601255368</v>
+      </c>
+      <c r="C103">
+        <v>65</v>
+      </c>
+      <c r="D103">
+        <v>68</v>
+      </c>
+      <c r="E103">
+        <v>0.04</v>
+      </c>
+      <c r="F103">
+        <v>0.96</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.02018163471241171</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.01905742982230235</v>
+      </c>
+      <c r="C105">
+        <v>74</v>
+      </c>
+      <c r="D105">
+        <v>78</v>
+      </c>
+      <c r="E105">
+        <v>0.05</v>
+      </c>
+      <c r="F105">
+        <v>0.95</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.01725790987535954</v>
+      </c>
+      <c r="C106">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>0.1</v>
+      </c>
+      <c r="F106">
+        <v>0.9</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.01678719008264463</v>
+      </c>
+      <c r="C107">
+        <v>65</v>
+      </c>
+      <c r="D107">
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>0.08</v>
+      </c>
+      <c r="F107">
+        <v>0.92</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.01511811023622047</v>
+      </c>
+      <c r="C108">
+        <v>48</v>
+      </c>
+      <c r="D108">
+        <v>58</v>
+      </c>
+      <c r="E108">
+        <v>0.17</v>
+      </c>
+      <c r="F108">
+        <v>0.83</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.01460120459937945</v>
+      </c>
+      <c r="C109">
+        <v>80</v>
+      </c>
+      <c r="D109">
+        <v>90</v>
+      </c>
+      <c r="E109">
+        <v>0.11</v>
+      </c>
+      <c r="F109">
+        <v>0.89</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.01062660315133749</v>
+      </c>
+      <c r="C110">
         <v>29</v>
       </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
-      <c r="E76">
-        <v>0.17</v>
-      </c>
-      <c r="F76">
-        <v>0.83</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>1122</v>
+      <c r="D110">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>0.03</v>
+      </c>
+      <c r="F110">
+        <v>0.97</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.006702103073723134</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>40</v>
+      </c>
+      <c r="E111">
+        <v>0.28</v>
+      </c>
+      <c r="F111">
+        <v>0.72</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>4298</v>
       </c>
     </row>
   </sheetData>
